--- a/Code/Results/Cases/Case_4_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_212/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.98479547859611</v>
+        <v>21.64429833926596</v>
       </c>
       <c r="C2">
-        <v>27.95686120372918</v>
+        <v>24.55962196639037</v>
       </c>
       <c r="D2">
-        <v>9.863328779407478</v>
+        <v>13.90695676658817</v>
       </c>
       <c r="E2">
-        <v>9.163187628872764</v>
+        <v>14.07553462178563</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.10999263321412</v>
+        <v>3.806446661780591</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>65.48673013984518</v>
+        <v>52.24426545471579</v>
       </c>
       <c r="J2">
-        <v>4.867661212607527</v>
+        <v>8.42747175141918</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.61465633213735</v>
+        <v>24.92264367281062</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.40491064713461</v>
+        <v>21.59696295488702</v>
       </c>
       <c r="C3">
-        <v>26.12511225082322</v>
+        <v>24.15985547819727</v>
       </c>
       <c r="D3">
-        <v>9.571043147624032</v>
+        <v>13.89956147134617</v>
       </c>
       <c r="E3">
-        <v>9.015551639905794</v>
+        <v>14.08350364267313</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.13082398971424</v>
+        <v>3.81260108385568</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>61.65832002211103</v>
+        <v>50.95250479852896</v>
       </c>
       <c r="J3">
-        <v>4.894394370182023</v>
+        <v>8.439053292572849</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.80509922021446</v>
+        <v>24.91609946912542</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.48001681644729</v>
+        <v>21.57983199231682</v>
       </c>
       <c r="C4">
-        <v>24.98318773527691</v>
+        <v>23.91942476517431</v>
       </c>
       <c r="D4">
-        <v>9.398495438147931</v>
+        <v>13.89778528670908</v>
       </c>
       <c r="E4">
-        <v>8.930948215643863</v>
+        <v>14.09040970326367</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.143638123324425</v>
+        <v>3.816560401324335</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>59.25865914589639</v>
+        <v>50.14348598000983</v>
       </c>
       <c r="J4">
-        <v>4.911476239565344</v>
+        <v>8.446622381130977</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.32400976524612</v>
+        <v>24.92007041850963</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.15531231950687</v>
+        <v>21.57584279358089</v>
       </c>
       <c r="C5">
-        <v>24.51328708456517</v>
+        <v>23.82283141623229</v>
       </c>
       <c r="D5">
-        <v>9.329827124769368</v>
+        <v>13.89775539602232</v>
       </c>
       <c r="E5">
-        <v>8.897894566675296</v>
+        <v>14.09372918813814</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.148879927612611</v>
+        <v>3.81821949181197</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>58.2679045020028</v>
+        <v>49.81012397382042</v>
       </c>
       <c r="J5">
-        <v>4.91861332321216</v>
+        <v>8.449822357228195</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.13181423768459</v>
+        <v>24.923690624004</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.10148977874562</v>
+        <v>21.5753607330834</v>
       </c>
       <c r="C6">
-        <v>24.43498231954683</v>
+        <v>23.80687921005852</v>
       </c>
       <c r="D6">
-        <v>9.318521919811182</v>
+        <v>13.89779230060132</v>
       </c>
       <c r="E6">
-        <v>8.892489369781527</v>
+        <v>14.09431086885514</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.149751900465216</v>
+        <v>3.818497746274611</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>58.10260283119527</v>
+        <v>49.75455660041102</v>
       </c>
       <c r="J6">
-        <v>4.919809283126709</v>
+        <v>8.450360697676242</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.1001295592812</v>
+        <v>24.92441244266952</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.4756314146078</v>
+        <v>21.57976609413287</v>
       </c>
       <c r="C7">
-        <v>24.97686909956894</v>
+        <v>23.91811631283733</v>
       </c>
       <c r="D7">
-        <v>9.397562794687758</v>
+        <v>13.8977820758213</v>
       </c>
       <c r="E7">
-        <v>8.930496800430126</v>
+        <v>14.09045242678051</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.143708718369969</v>
+        <v>3.816582591281122</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>59.24535010570651</v>
+        <v>50.13900462162998</v>
       </c>
       <c r="J7">
-        <v>4.911571769826274</v>
+        <v>8.446665068959893</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.32140231527949</v>
+        <v>24.92011114594413</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.44310196118241</v>
+        <v>21.62549652587349</v>
       </c>
       <c r="C8">
-        <v>27.32864948782566</v>
+        <v>24.42081171246445</v>
       </c>
       <c r="D8">
-        <v>9.761049422546057</v>
+        <v>13.90383242493083</v>
       </c>
       <c r="E8">
-        <v>9.110964915199922</v>
+        <v>14.0778639585577</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.117179517987414</v>
+        <v>3.808531402069028</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>64.17642958181523</v>
+        <v>51.8023420206065</v>
       </c>
       <c r="J8">
-        <v>4.876745592603415</v>
+        <v>8.431370224278897</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.3320768870849</v>
+        <v>24.91872535492563</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.3255022258063</v>
+        <v>21.81001551364464</v>
       </c>
       <c r="C9">
-        <v>31.8258783108069</v>
+        <v>25.44112318792602</v>
       </c>
       <c r="D9">
-        <v>10.53456874498039</v>
+        <v>13.93767716534248</v>
       </c>
       <c r="E9">
-        <v>9.518159519187227</v>
+        <v>14.06919354001799</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.064570985821295</v>
+        <v>3.794163409558882</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.50185730554257</v>
+        <v>54.92544661673688</v>
       </c>
       <c r="J9">
-        <v>4.813296481793323</v>
+        <v>8.40499519403858</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.45398233462796</v>
+        <v>24.97964447646673</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.18069027742753</v>
+        <v>22.00327332799591</v>
       </c>
       <c r="C10">
-        <v>35.12513344655971</v>
+        <v>26.20457972241439</v>
       </c>
       <c r="D10">
-        <v>11.15178405825005</v>
+        <v>13.97598705422258</v>
       </c>
       <c r="E10">
-        <v>9.859400269196119</v>
+        <v>14.07264374464818</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.024181369503556</v>
+        <v>3.784456748031787</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.24130114485916</v>
+        <v>57.11971336189745</v>
       </c>
       <c r="J10">
-        <v>4.768823992693958</v>
+        <v>8.387801479762796</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.54492310858833</v>
+        <v>25.06344233328516</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.50193487362343</v>
+        <v>22.10358714255183</v>
       </c>
       <c r="C11">
-        <v>36.68454670747114</v>
+        <v>26.55339096020074</v>
       </c>
       <c r="D11">
-        <v>11.44743865515279</v>
+        <v>13.99633711251616</v>
       </c>
       <c r="E11">
-        <v>10.02684841875418</v>
+        <v>14.07635624526034</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.004992245288171</v>
+        <v>3.780221840701191</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83.31846404011507</v>
+        <v>58.09323033032612</v>
       </c>
       <c r="J11">
-        <v>4.748800640814437</v>
+        <v>8.380449245539259</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.61611718653713</v>
+        <v>25.11006228006177</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.00812921010657</v>
+        <v>22.14333798373451</v>
       </c>
       <c r="C12">
-        <v>37.27902620125237</v>
+        <v>26.68557161243073</v>
       </c>
       <c r="D12">
-        <v>11.56207025575649</v>
+        <v>14.00446293890428</v>
       </c>
       <c r="E12">
-        <v>10.09237963339096</v>
+        <v>14.07807086352363</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.997556989403617</v>
+        <v>3.778643894523932</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>84.4897411715651</v>
+        <v>58.45810929428402</v>
       </c>
       <c r="J12">
-        <v>4.741217762642521</v>
+        <v>8.37773226760091</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.02451038489097</v>
+        <v>25.12893728643234</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.89879795277063</v>
+        <v>22.13469881599357</v>
       </c>
       <c r="C13">
-        <v>37.15076736743965</v>
+        <v>26.65710191863227</v>
       </c>
       <c r="D13">
-        <v>11.53725265364343</v>
+        <v>14.00269424346469</v>
       </c>
       <c r="E13">
-        <v>10.07816473275702</v>
+        <v>14.07768784818975</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.999166815773558</v>
+        <v>3.778982593717545</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>84.23713069763005</v>
+        <v>58.37969714406717</v>
       </c>
       <c r="J13">
-        <v>4.742851485600504</v>
+        <v>8.378314435933991</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.93639566278114</v>
+        <v>25.12481794599091</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54344370633909</v>
+        <v>22.10682223601598</v>
       </c>
       <c r="C14">
-        <v>36.7333575187774</v>
+        <v>26.56426436506996</v>
       </c>
       <c r="D14">
-        <v>11.45681209551403</v>
+        <v>13.99699722227541</v>
       </c>
       <c r="E14">
-        <v>10.03219463475672</v>
+        <v>14.07649111644317</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.004384280126607</v>
+        <v>3.780091508142882</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.41467421982844</v>
+        <v>58.12332592709785</v>
       </c>
       <c r="J14">
-        <v>4.748177012217313</v>
+        <v>8.380224374141173</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.64964749533741</v>
+        <v>25.11159067927727</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.32663730787454</v>
+        <v>22.08997613436142</v>
       </c>
       <c r="C15">
-        <v>36.4782895020594</v>
+        <v>26.5074072396037</v>
       </c>
       <c r="D15">
-        <v>11.40790739178302</v>
+        <v>13.99356226656519</v>
       </c>
       <c r="E15">
-        <v>10.00432596580427</v>
+        <v>14.07579831192677</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.007556336883852</v>
+        <v>3.780774092067044</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82.91183708019315</v>
+        <v>57.96579377718978</v>
       </c>
       <c r="J15">
-        <v>4.751437919460848</v>
+        <v>8.381403002131812</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.47443220546924</v>
+        <v>25.10364754920628</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.09500105782097</v>
+        <v>21.99696559021021</v>
       </c>
       <c r="C16">
-        <v>35.02361789030935</v>
+        <v>26.18180381458997</v>
       </c>
       <c r="D16">
-        <v>11.132803065802</v>
+        <v>13.97471590072793</v>
       </c>
       <c r="E16">
-        <v>9.848731539531045</v>
+        <v>14.07244430124237</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.025414974003155</v>
+        <v>3.784737122901197</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.04077130891312</v>
+        <v>57.05557581350135</v>
       </c>
       <c r="J16">
-        <v>4.770134365821075</v>
+        <v>8.388291380521386</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.47518615649205</v>
+        <v>25.06056658038256</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.34679048467396</v>
+        <v>21.94307055669186</v>
       </c>
       <c r="C17">
-        <v>34.15520789272502</v>
+        <v>25.98235431839935</v>
       </c>
       <c r="D17">
-        <v>10.9681690753037</v>
+        <v>13.96390253859009</v>
       </c>
       <c r="E17">
-        <v>9.756633011828177</v>
+        <v>14.07093606358748</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.036129940491301</v>
+        <v>3.787214409266845</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.28504904765893</v>
+        <v>56.49070352761542</v>
       </c>
       <c r="J17">
-        <v>4.781638457479581</v>
+        <v>8.392637136252658</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.86486954858333</v>
+        <v>25.03631445101849</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.91834800192284</v>
+        <v>21.91324012757073</v>
       </c>
       <c r="C18">
-        <v>33.66252240795724</v>
+        <v>25.86778566182647</v>
       </c>
       <c r="D18">
-        <v>10.87483545835158</v>
+        <v>13.95795813419529</v>
       </c>
       <c r="E18">
-        <v>9.704782733621455</v>
+        <v>14.07027024251174</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.042219970622067</v>
+        <v>3.788656303240897</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.27593794905847</v>
+        <v>56.16349437841159</v>
       </c>
       <c r="J18">
-        <v>4.788277094675254</v>
+        <v>8.395180889660516</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.51424608678146</v>
+        <v>25.02316549134165</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.77354559887898</v>
+        <v>21.90334125961231</v>
       </c>
       <c r="C19">
-        <v>33.49586985287868</v>
+        <v>25.82902418405977</v>
       </c>
       <c r="D19">
-        <v>10.84345452538644</v>
+        <v>13.95599273109718</v>
       </c>
       <c r="E19">
-        <v>9.687410590910275</v>
+        <v>14.07007942483484</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.044270740900788</v>
+        <v>3.789147435702562</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.93428593835742</v>
+        <v>56.05231745725657</v>
       </c>
       <c r="J19">
-        <v>4.790529339041424</v>
+        <v>8.396049760458149</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.39555376280209</v>
+        <v>25.01885093017886</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.4262248614727</v>
+        <v>21.94868695498543</v>
       </c>
       <c r="C20">
-        <v>34.24648414024862</v>
+        <v>26.00357150344896</v>
       </c>
       <c r="D20">
-        <v>10.9855506803787</v>
+        <v>13.96502516498216</v>
       </c>
       <c r="E20">
-        <v>9.766318622327262</v>
+        <v>14.07107574045426</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.034997184604271</v>
+        <v>3.786948937846628</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.4718456406472</v>
+        <v>56.55107586012556</v>
       </c>
       <c r="J20">
-        <v>4.78041176155234</v>
+        <v>8.392169952051651</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.92978403750938</v>
+        <v>25.03881331540762</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.64763488893963</v>
+        <v>22.11496255733475</v>
       </c>
       <c r="C21">
-        <v>36.85582837047075</v>
+        <v>26.59153143702326</v>
       </c>
       <c r="D21">
-        <v>11.48036160470389</v>
+        <v>13.99865919129496</v>
       </c>
       <c r="E21">
-        <v>10.04563602947012</v>
+        <v>14.07683424107847</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.002856859444531</v>
+        <v>3.779765097135802</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.65604331116843</v>
+        <v>58.19873239309737</v>
       </c>
       <c r="J21">
-        <v>4.746613080916328</v>
+        <v>8.379661559063843</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.73377919709628</v>
+        <v>25.1154427269055</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.13564178239686</v>
+        <v>22.23390431382199</v>
       </c>
       <c r="C22">
-        <v>38.59715236625281</v>
+        <v>26.97628726354567</v>
       </c>
       <c r="D22">
-        <v>11.81974709926549</v>
+        <v>14.02308679500212</v>
       </c>
       <c r="E22">
-        <v>10.24082859476653</v>
+        <v>14.08239774776114</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.980829853897981</v>
+        <v>3.775219841663274</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>87.08263964496339</v>
+        <v>59.25350203890755</v>
       </c>
       <c r="J22">
-        <v>4.724498560110725</v>
+        <v>8.371877872785397</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.93026732364451</v>
+        <v>25.17263998598118</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.33701421109783</v>
+        <v>22.16949047160742</v>
       </c>
       <c r="C23">
-        <v>37.66437739075338</v>
+        <v>26.77093083842269</v>
       </c>
       <c r="D23">
-        <v>11.63691236353506</v>
+        <v>14.00982581202729</v>
       </c>
       <c r="E23">
-        <v>10.1353371686141</v>
+        <v>14.07926352147798</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.992701418482228</v>
+        <v>3.777632110952569</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>85.2483853331934</v>
+        <v>58.69263987818394</v>
       </c>
       <c r="J23">
-        <v>4.73631671427493</v>
+        <v>8.375996479030952</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.28926621362752</v>
+        <v>25.14146247252059</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.39030742801625</v>
+        <v>21.94614418379164</v>
       </c>
       <c r="C24">
-        <v>34.2052149564873</v>
+        <v>25.9939789009049</v>
       </c>
       <c r="D24">
-        <v>10.97768839294337</v>
+        <v>13.96451677726742</v>
       </c>
       <c r="E24">
-        <v>9.761936362330475</v>
+        <v>14.07101196563313</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.035509518396732</v>
+        <v>3.787068902420473</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.38739434656732</v>
+        <v>56.52378916299797</v>
       </c>
       <c r="J24">
-        <v>4.780966271453611</v>
+        <v>8.392381024840653</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.90043553488966</v>
+        <v>25.03768110588201</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.28046146633079</v>
+        <v>21.74993803891655</v>
       </c>
       <c r="C25">
-        <v>30.61738581934479</v>
+        <v>25.16215271013741</v>
       </c>
       <c r="D25">
-        <v>10.31781653014879</v>
+        <v>13.92616216095064</v>
       </c>
       <c r="E25">
-        <v>9.401446257530843</v>
+        <v>14.06981829885579</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.078988634431771</v>
+        <v>3.797899960378158</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>71.0079544857407</v>
+        <v>54.09711053988136</v>
       </c>
       <c r="J25">
-        <v>4.830014551672724</v>
+        <v>8.41174524100874</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.86254778274197</v>
+        <v>24.95631999403772</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_212/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_212/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.64429833926596</v>
+        <v>19.98479547859618</v>
       </c>
       <c r="C2">
-        <v>24.55962196639037</v>
+        <v>27.95686120372929</v>
       </c>
       <c r="D2">
-        <v>13.90695676658817</v>
+        <v>9.863328779407436</v>
       </c>
       <c r="E2">
-        <v>14.07553462178563</v>
+        <v>9.163187628872747</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.806446661780591</v>
+        <v>2.109992633214077</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>52.24426545471579</v>
+        <v>65.48673013984514</v>
       </c>
       <c r="J2">
-        <v>8.42747175141918</v>
+        <v>4.867661212607509</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>24.92264367281062</v>
+        <v>18.61465633213738</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.59696295488702</v>
+        <v>18.40491064713461</v>
       </c>
       <c r="C3">
-        <v>24.15985547819727</v>
+        <v>26.12511225082315</v>
       </c>
       <c r="D3">
-        <v>13.89956147134617</v>
+        <v>9.571043147624009</v>
       </c>
       <c r="E3">
-        <v>14.08350364267313</v>
+        <v>9.015551639905633</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.81260108385568</v>
+        <v>2.130823989713988</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>50.95250479852896</v>
+        <v>61.65832002211028</v>
       </c>
       <c r="J3">
-        <v>8.439053292572849</v>
+        <v>4.894394370181949</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>24.91609946912542</v>
+        <v>17.80509922021445</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.57983199231682</v>
+        <v>17.48001681644729</v>
       </c>
       <c r="C4">
-        <v>23.91942476517431</v>
+        <v>24.983187735277</v>
       </c>
       <c r="D4">
-        <v>13.89778528670908</v>
+        <v>9.398495438147897</v>
       </c>
       <c r="E4">
-        <v>14.09040970326367</v>
+        <v>8.930948215643882</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.816560401324335</v>
+        <v>2.143638123324411</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>50.14348598000983</v>
+        <v>59.2586591458968</v>
       </c>
       <c r="J4">
-        <v>8.446622381130977</v>
+        <v>4.911476239565368</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>24.92007041850963</v>
+        <v>17.32400976524614</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.57584279358089</v>
+        <v>17.15531231950692</v>
       </c>
       <c r="C5">
-        <v>23.82283141623229</v>
+        <v>24.51328708456506</v>
       </c>
       <c r="D5">
-        <v>13.89775539602232</v>
+        <v>9.32982712476935</v>
       </c>
       <c r="E5">
-        <v>14.09372918813814</v>
+        <v>8.897894566675138</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.81821949181197</v>
+        <v>2.148879927612592</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>49.81012397382042</v>
+        <v>58.26790450200221</v>
       </c>
       <c r="J5">
-        <v>8.449822357228195</v>
+        <v>4.918613323212043</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.923690624004</v>
+        <v>17.13181423768464</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.5753607330834</v>
+        <v>17.10148977874567</v>
       </c>
       <c r="C6">
-        <v>23.80687921005852</v>
+        <v>24.43498231954678</v>
       </c>
       <c r="D6">
-        <v>13.89779230060132</v>
+        <v>9.31852191981131</v>
       </c>
       <c r="E6">
-        <v>14.09431086885514</v>
+        <v>8.892489369781556</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.818497746274611</v>
+        <v>2.149751900465346</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>49.75455660041102</v>
+        <v>58.10260283119489</v>
       </c>
       <c r="J6">
-        <v>8.450360697676242</v>
+        <v>4.919809283126682</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.92441244266952</v>
+        <v>17.1001295592813</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.57976609413287</v>
+        <v>17.4756314146078</v>
       </c>
       <c r="C7">
-        <v>23.91811631283733</v>
+        <v>24.97686909956887</v>
       </c>
       <c r="D7">
-        <v>13.8977820758213</v>
+        <v>9.397562794687833</v>
       </c>
       <c r="E7">
-        <v>14.09045242678051</v>
+        <v>8.930496800430141</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.816582591281122</v>
+        <v>2.143708718369988</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>50.13900462162998</v>
+        <v>59.24535010570629</v>
       </c>
       <c r="J7">
-        <v>8.446665068959893</v>
+        <v>4.911571769826268</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>24.92011114594413</v>
+        <v>17.32140231527952</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.62549652587349</v>
+        <v>19.44310196118246</v>
       </c>
       <c r="C8">
-        <v>24.42081171246445</v>
+        <v>27.32864948782578</v>
       </c>
       <c r="D8">
-        <v>13.90383242493083</v>
+        <v>9.761049422546051</v>
       </c>
       <c r="E8">
-        <v>14.0778639585577</v>
+        <v>9.110964915199885</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.808531402069028</v>
+        <v>2.117179517987414</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>51.8023420206065</v>
+        <v>64.1764295818157</v>
       </c>
       <c r="J8">
-        <v>8.431370224278897</v>
+        <v>4.876745592603323</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>24.91872535492563</v>
+        <v>18.33207688708492</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.81001551364464</v>
+        <v>23.32550222580649</v>
       </c>
       <c r="C9">
-        <v>25.44112318792602</v>
+        <v>31.82587831080699</v>
       </c>
       <c r="D9">
-        <v>13.93767716534248</v>
+        <v>10.53456874498044</v>
       </c>
       <c r="E9">
-        <v>14.06919354001799</v>
+        <v>9.518159519187288</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.794163409558882</v>
+        <v>2.064570985821456</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>54.92544661673688</v>
+        <v>73.50185730554344</v>
       </c>
       <c r="J9">
-        <v>8.40499519403858</v>
+        <v>4.813296481793347</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>24.97964447646673</v>
+        <v>20.45398233462794</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.00327332799591</v>
+        <v>26.18069027742755</v>
       </c>
       <c r="C10">
-        <v>26.20457972241439</v>
+        <v>35.12513344655972</v>
       </c>
       <c r="D10">
-        <v>13.97598705422258</v>
+        <v>11.15178405825005</v>
       </c>
       <c r="E10">
-        <v>14.07264374464818</v>
+        <v>9.85940026919612</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.784456748031787</v>
+        <v>2.024181369503665</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>57.11971336189745</v>
+        <v>80.24130114485945</v>
       </c>
       <c r="J10">
-        <v>8.387801479762796</v>
+        <v>4.768823992693978</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.06344233328516</v>
+        <v>22.54492310858837</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.10358714255183</v>
+        <v>27.50193487362321</v>
       </c>
       <c r="C11">
-        <v>26.55339096020074</v>
+        <v>36.68454670747086</v>
       </c>
       <c r="D11">
-        <v>13.99633711251616</v>
+        <v>11.44743865515273</v>
       </c>
       <c r="E11">
-        <v>14.07635624526034</v>
+        <v>10.02684841875418</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.780221840701191</v>
+        <v>2.004992245288415</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>58.09323033032612</v>
+        <v>83.31846404011397</v>
       </c>
       <c r="J11">
-        <v>8.380449245539259</v>
+        <v>4.748800640814461</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.11006228006177</v>
+        <v>23.61611718653697</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.14333798373451</v>
+        <v>28.00812921010656</v>
       </c>
       <c r="C12">
-        <v>26.68557161243073</v>
+        <v>37.27902620125259</v>
       </c>
       <c r="D12">
-        <v>14.00446293890428</v>
+        <v>11.56207025575646</v>
       </c>
       <c r="E12">
-        <v>14.07807086352363</v>
+        <v>10.09237963339089</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.778643894523932</v>
+        <v>1.997556989403711</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>58.45810929428402</v>
+        <v>84.48974117156544</v>
       </c>
       <c r="J12">
-        <v>8.37773226760091</v>
+        <v>4.741217762642483</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.12893728643234</v>
+        <v>24.02451038489101</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.13469881599357</v>
+        <v>27.89879795277035</v>
       </c>
       <c r="C13">
-        <v>26.65710191863227</v>
+        <v>37.15076736743922</v>
       </c>
       <c r="D13">
-        <v>14.00269424346469</v>
+        <v>11.53725265364338</v>
       </c>
       <c r="E13">
-        <v>14.07768784818975</v>
+        <v>10.07816473275703</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.778982593717545</v>
+        <v>1.999166815773367</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>58.37969714406717</v>
+        <v>84.23713069762809</v>
       </c>
       <c r="J13">
-        <v>8.378314435933991</v>
+        <v>4.742851485600487</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.12481794599091</v>
+        <v>23.93639566278096</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.10682223601598</v>
+        <v>27.54344370633921</v>
       </c>
       <c r="C14">
-        <v>26.56426436506996</v>
+        <v>36.73335751877773</v>
       </c>
       <c r="D14">
-        <v>13.99699722227541</v>
+        <v>11.45681209551401</v>
       </c>
       <c r="E14">
-        <v>14.07649111644317</v>
+        <v>10.03219463475669</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.780091508142882</v>
+        <v>2.00438428012658</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>58.12332592709785</v>
+        <v>83.41467421982883</v>
       </c>
       <c r="J14">
-        <v>8.380224374141173</v>
+        <v>4.748177012217349</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.11159067927727</v>
+        <v>23.64964749533754</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.08997613436142</v>
+        <v>27.32663730787456</v>
       </c>
       <c r="C15">
-        <v>26.5074072396037</v>
+        <v>36.47828950205911</v>
       </c>
       <c r="D15">
-        <v>13.99356226656519</v>
+        <v>11.40790739178294</v>
       </c>
       <c r="E15">
-        <v>14.07579831192677</v>
+        <v>10.00432596580427</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.780774092067044</v>
+        <v>2.007556336884003</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>57.96579377718978</v>
+        <v>82.91183708019254</v>
       </c>
       <c r="J15">
-        <v>8.381403002131812</v>
+        <v>4.751437919460843</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.10364754920628</v>
+        <v>23.47443220546912</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.99696559021021</v>
+        <v>26.09500105782106</v>
       </c>
       <c r="C16">
-        <v>26.18180381458997</v>
+        <v>35.02361789030941</v>
       </c>
       <c r="D16">
-        <v>13.97471590072793</v>
+        <v>11.13280306580197</v>
       </c>
       <c r="E16">
-        <v>14.07244430124237</v>
+        <v>9.848731539530995</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.784737122901197</v>
+        <v>2.025414974003031</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>57.05557581350135</v>
+        <v>80.04077130891343</v>
       </c>
       <c r="J16">
-        <v>8.388291380521386</v>
+        <v>4.770134365821098</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.06056658038256</v>
+        <v>22.47518615649202</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.94307055669186</v>
+        <v>25.34679048467394</v>
       </c>
       <c r="C17">
-        <v>25.98235431839935</v>
+        <v>34.1552078927248</v>
       </c>
       <c r="D17">
-        <v>13.96390253859009</v>
+        <v>10.96816907530366</v>
       </c>
       <c r="E17">
-        <v>14.07093606358748</v>
+        <v>9.756633011828185</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.787214409266845</v>
+        <v>2.036129940490916</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>56.49070352761542</v>
+        <v>78.28504904765855</v>
       </c>
       <c r="J17">
-        <v>8.392637136252658</v>
+        <v>4.781638457479601</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25.03631445101849</v>
+        <v>21.86486954858326</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.91324012757073</v>
+        <v>24.91834800192309</v>
       </c>
       <c r="C18">
-        <v>25.86778566182647</v>
+        <v>33.66252240795744</v>
       </c>
       <c r="D18">
-        <v>13.95795813419529</v>
+        <v>10.87483545835154</v>
       </c>
       <c r="E18">
-        <v>14.07027024251174</v>
+        <v>9.704782733621405</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.788656303240897</v>
+        <v>2.042219970622029</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>56.16349437841159</v>
+        <v>77.27593794905904</v>
       </c>
       <c r="J18">
-        <v>8.395180889660516</v>
+        <v>4.788277094675339</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.02316549134165</v>
+        <v>21.51424608678163</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.90334125961231</v>
+        <v>24.77354559887895</v>
       </c>
       <c r="C19">
-        <v>25.82902418405977</v>
+        <v>33.4958698528789</v>
       </c>
       <c r="D19">
-        <v>13.95599273109718</v>
+        <v>10.84345452538639</v>
       </c>
       <c r="E19">
-        <v>14.07007942483484</v>
+        <v>9.687410590910178</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.789147435702562</v>
+        <v>2.0442707409008</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>56.05231745725657</v>
+        <v>76.93428593835789</v>
       </c>
       <c r="J19">
-        <v>8.396049760458149</v>
+        <v>4.790529339041385</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.01885093017886</v>
+        <v>21.39555376280217</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.94868695498543</v>
+        <v>25.42622486147308</v>
       </c>
       <c r="C20">
-        <v>26.00357150344896</v>
+        <v>34.24648414024879</v>
       </c>
       <c r="D20">
-        <v>13.96502516498216</v>
+        <v>10.98555068037878</v>
       </c>
       <c r="E20">
-        <v>14.07107574045426</v>
+        <v>9.766318622327265</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.786948937846628</v>
+        <v>2.03499718460416</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>56.55107586012556</v>
+        <v>78.47184564064786</v>
       </c>
       <c r="J20">
-        <v>8.392169952051651</v>
+        <v>4.78041176155231</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.03881331540762</v>
+        <v>21.92978403750959</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.11496255733475</v>
+        <v>27.64763488893943</v>
       </c>
       <c r="C21">
-        <v>26.59153143702326</v>
+        <v>36.85582837047085</v>
       </c>
       <c r="D21">
-        <v>13.99865919129496</v>
+        <v>11.48036160470387</v>
       </c>
       <c r="E21">
-        <v>14.07683424107847</v>
+        <v>10.04563602947007</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.779765097135802</v>
+        <v>2.00285685944445</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>58.19873239309737</v>
+        <v>83.65604331116876</v>
       </c>
       <c r="J21">
-        <v>8.379661559063843</v>
+        <v>4.746613080916264</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.1154427269055</v>
+        <v>23.73377919709622</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.23390431382199</v>
+        <v>29.13564178239688</v>
       </c>
       <c r="C22">
-        <v>26.97628726354567</v>
+        <v>38.59715236625262</v>
       </c>
       <c r="D22">
-        <v>14.02308679500212</v>
+        <v>11.81974709926551</v>
       </c>
       <c r="E22">
-        <v>14.08239774776114</v>
+        <v>10.24082859476654</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.775219841663274</v>
+        <v>1.980829853897767</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>59.25350203890755</v>
+        <v>87.08263964496312</v>
       </c>
       <c r="J22">
-        <v>8.371877872785397</v>
+        <v>4.724498560110738</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.17263998598118</v>
+        <v>24.93026732364455</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.16949047160742</v>
+        <v>28.33701421109824</v>
       </c>
       <c r="C23">
-        <v>26.77093083842269</v>
+        <v>37.66437739075371</v>
       </c>
       <c r="D23">
-        <v>14.00982581202729</v>
+        <v>11.63691236353516</v>
       </c>
       <c r="E23">
-        <v>14.07926352147798</v>
+        <v>10.13533716861424</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.777632110952569</v>
+        <v>1.992701418482364</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>58.69263987818394</v>
+        <v>85.24838533319479</v>
       </c>
       <c r="J23">
-        <v>8.375996479030952</v>
+        <v>4.73631671427503</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.14146247252059</v>
+        <v>24.28926621362775</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.94614418379164</v>
+        <v>25.39030742801614</v>
       </c>
       <c r="C24">
-        <v>25.9939789009049</v>
+        <v>34.20521495648707</v>
       </c>
       <c r="D24">
-        <v>13.96451677726742</v>
+        <v>10.97768839294332</v>
       </c>
       <c r="E24">
-        <v>14.07101196563313</v>
+        <v>9.761936362330429</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.787068902420473</v>
+        <v>2.035509518397105</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>56.52378916299797</v>
+        <v>78.38739434656601</v>
       </c>
       <c r="J24">
-        <v>8.392381024840653</v>
+        <v>4.780966271453565</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>25.03768110588201</v>
+        <v>21.90043553488953</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.74993803891655</v>
+        <v>22.28046146633077</v>
       </c>
       <c r="C25">
-        <v>25.16215271013741</v>
+        <v>30.61738581934467</v>
       </c>
       <c r="D25">
-        <v>13.92616216095064</v>
+        <v>10.31781653014874</v>
       </c>
       <c r="E25">
-        <v>14.06981829885579</v>
+        <v>9.401446257530862</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.797899960378158</v>
+        <v>2.078988634431764</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>54.09711053988136</v>
+        <v>71.00795448574014</v>
       </c>
       <c r="J25">
-        <v>8.41174524100874</v>
+        <v>4.830014551672723</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>24.95631999403772</v>
+        <v>19.86254778274199</v>
       </c>
       <c r="N25">
         <v>0</v>
